--- a/spreadsheets/new/GSE44183.0.xlsx
+++ b/spreadsheets/new/GSE44183.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48507F6-955F-024C-9733-E6D044B7AC0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="26140" windowHeight="19160" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
     <sheet name="Sequencing_protocol" sheetId="9" r:id="rId9"/>
     <sheet name="Specimen_from_organism" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="1220">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -3680,13 +3686,16 @@
   </si>
   <si>
     <t>8-cell embryo</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3723,6 +3732,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3769,7 +3786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3801,9 +3818,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3835,6 +3870,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4010,75 +4063,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="91.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="91.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4257,7 +4306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -4436,7 +4485,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -4594,7 +4643,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4773,12 +4822,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -4801,7 +4850,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -4827,7 +4876,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -4853,7 +4902,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>223</v>
       </c>
@@ -4879,7 +4928,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -4905,7 +4954,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>230</v>
       </c>
@@ -4931,7 +4980,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>233</v>
       </c>
@@ -4957,7 +5006,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>236</v>
       </c>
@@ -4983,7 +5032,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>240</v>
       </c>
@@ -5009,7 +5058,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -5035,7 +5084,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -5061,7 +5110,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>250</v>
       </c>
@@ -5087,7 +5136,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>253</v>
       </c>
@@ -5113,7 +5162,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>257</v>
       </c>
@@ -5139,7 +5188,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>260</v>
       </c>
@@ -5165,7 +5214,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>263</v>
       </c>
@@ -5191,7 +5240,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -5217,7 +5266,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>270</v>
       </c>
@@ -5243,7 +5292,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>273</v>
       </c>
@@ -5269,7 +5318,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>276</v>
       </c>
@@ -5295,7 +5344,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>279</v>
       </c>
@@ -5321,7 +5370,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>282</v>
       </c>
@@ -5347,7 +5396,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>285</v>
       </c>
@@ -5373,7 +5422,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>288</v>
       </c>
@@ -5399,7 +5448,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>291</v>
       </c>
@@ -5425,7 +5474,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>294</v>
       </c>
@@ -5451,7 +5500,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>297</v>
       </c>
@@ -5477,7 +5526,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>300</v>
       </c>
@@ -5503,7 +5552,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>304</v>
       </c>
@@ -5529,7 +5578,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>307</v>
       </c>
@@ -5555,7 +5604,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>310</v>
       </c>
@@ -5584,7 +5633,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>315</v>
       </c>
@@ -5613,7 +5662,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>318</v>
       </c>
@@ -5642,7 +5691,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>321</v>
       </c>
@@ -5671,7 +5720,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>324</v>
       </c>
@@ -5700,7 +5749,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>327</v>
       </c>
@@ -5729,7 +5778,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>330</v>
       </c>
@@ -5758,7 +5807,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>333</v>
       </c>
@@ -5787,7 +5836,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>336</v>
       </c>
@@ -5816,7 +5865,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>339</v>
       </c>
@@ -5845,7 +5894,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>342</v>
       </c>
@@ -5874,7 +5923,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>345</v>
       </c>
@@ -5903,7 +5952,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>348</v>
       </c>
@@ -5932,7 +5981,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:42">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>351</v>
       </c>
@@ -5961,7 +6010,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:42">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>354</v>
       </c>
@@ -5990,7 +6039,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:42">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>357</v>
       </c>
@@ -6019,7 +6068,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:42">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>360</v>
       </c>
@@ -6054,76 +6103,73 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BH52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -6305,7 +6351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -6487,7 +6533,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -6648,7 +6694,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -6830,12 +6876,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -6852,7 +6898,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>218</v>
       </c>
@@ -6872,7 +6918,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -6892,7 +6938,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>225</v>
       </c>
@@ -6912,7 +6958,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>229</v>
       </c>
@@ -6932,7 +6978,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -6952,7 +6998,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>235</v>
       </c>
@@ -6972,7 +7018,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -6992,7 +7038,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -7012,7 +7058,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>246</v>
       </c>
@@ -7032,7 +7078,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>249</v>
       </c>
@@ -7052,7 +7098,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>252</v>
       </c>
@@ -7072,7 +7118,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -7092,7 +7138,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -7112,7 +7158,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -7132,7 +7178,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>265</v>
       </c>
@@ -7152,7 +7198,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>269</v>
       </c>
@@ -7172,7 +7218,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>272</v>
       </c>
@@ -7192,7 +7238,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>275</v>
       </c>
@@ -7212,7 +7258,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>278</v>
       </c>
@@ -7232,7 +7278,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>281</v>
       </c>
@@ -7252,7 +7298,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>284</v>
       </c>
@@ -7272,7 +7318,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>287</v>
       </c>
@@ -7292,7 +7338,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>290</v>
       </c>
@@ -7312,7 +7358,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>293</v>
       </c>
@@ -7332,7 +7378,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>296</v>
       </c>
@@ -7352,7 +7398,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>299</v>
       </c>
@@ -7372,7 +7418,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>303</v>
       </c>
@@ -7392,7 +7438,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>306</v>
       </c>
@@ -7412,7 +7458,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>309</v>
       </c>
@@ -7432,7 +7478,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>314</v>
       </c>
@@ -7449,7 +7495,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>317</v>
       </c>
@@ -7466,7 +7512,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>320</v>
       </c>
@@ -7483,7 +7529,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>323</v>
       </c>
@@ -7500,7 +7546,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>326</v>
       </c>
@@ -7517,7 +7563,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>329</v>
       </c>
@@ -7534,7 +7580,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>332</v>
       </c>
@@ -7551,7 +7597,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -7568,7 +7614,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>338</v>
       </c>
@@ -7585,7 +7631,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>341</v>
       </c>
@@ -7602,7 +7648,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>344</v>
       </c>
@@ -7619,7 +7665,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>347</v>
       </c>
@@ -7636,7 +7682,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>350</v>
       </c>
@@ -7653,7 +7699,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>353</v>
       </c>
@@ -7670,7 +7716,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>356</v>
       </c>
@@ -7687,7 +7733,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>359</v>
       </c>
@@ -7704,7 +7750,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>362</v>
       </c>
@@ -7727,31 +7773,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
-    <col min="3" max="3" width="185.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="67.7109375" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="90.7109375" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" customWidth="1"/>
-    <col min="12" max="12" width="48.7109375" customWidth="1"/>
-    <col min="13" max="13" width="44.7109375" customWidth="1"/>
-    <col min="14" max="14" width="111.7109375" customWidth="1"/>
-    <col min="15" max="15" width="91.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" customWidth="1"/>
+    <col min="3" max="3" width="185.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="67.6640625" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="90.6640625" customWidth="1"/>
+    <col min="11" max="11" width="46.6640625" customWidth="1"/>
+    <col min="12" max="12" width="48.6640625" customWidth="1"/>
+    <col min="13" max="13" width="44.6640625" customWidth="1"/>
+    <col min="14" max="14" width="111.6640625" customWidth="1"/>
+    <col min="15" max="15" width="91.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -7798,7 +7844,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -7845,7 +7891,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -7886,7 +7932,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -7933,12 +7979,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>219</v>
       </c>
@@ -7952,93 +7998,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BY49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>412</v>
       </c>
@@ -8271,7 +8315,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -8504,7 +8548,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -8719,7 +8763,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>516</v>
       </c>
@@ -8952,12 +8996,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>577</v>
       </c>
@@ -8968,7 +9012,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>579</v>
       </c>
@@ -8982,7 +9026,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>581</v>
       </c>
@@ -8996,7 +9040,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>582</v>
       </c>
@@ -9010,7 +9054,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>583</v>
       </c>
@@ -9024,7 +9068,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>584</v>
       </c>
@@ -9038,7 +9082,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>585</v>
       </c>
@@ -9052,7 +9096,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>586</v>
       </c>
@@ -9066,7 +9110,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>587</v>
       </c>
@@ -9080,7 +9124,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>588</v>
       </c>
@@ -9094,7 +9138,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>589</v>
       </c>
@@ -9108,7 +9152,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>590</v>
       </c>
@@ -9122,7 +9166,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>591</v>
       </c>
@@ -9136,7 +9180,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>592</v>
       </c>
@@ -9150,7 +9194,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>593</v>
       </c>
@@ -9164,7 +9208,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>594</v>
       </c>
@@ -9178,7 +9222,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>595</v>
       </c>
@@ -9192,7 +9236,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>596</v>
       </c>
@@ -9206,7 +9250,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>597</v>
       </c>
@@ -9220,7 +9264,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>598</v>
       </c>
@@ -9234,7 +9278,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>599</v>
       </c>
@@ -9248,7 +9292,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>600</v>
       </c>
@@ -9262,7 +9306,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>601</v>
       </c>
@@ -9276,7 +9320,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>602</v>
       </c>
@@ -9290,7 +9334,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>603</v>
       </c>
@@ -9304,7 +9348,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>604</v>
       </c>
@@ -9318,7 +9362,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>605</v>
       </c>
@@ -9332,7 +9376,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>606</v>
       </c>
@@ -9343,7 +9387,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>608</v>
       </c>
@@ -9354,7 +9398,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>609</v>
       </c>
@@ -9365,7 +9409,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>610</v>
       </c>
@@ -9376,7 +9420,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>611</v>
       </c>
@@ -9387,7 +9431,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>612</v>
       </c>
@@ -9398,7 +9442,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>613</v>
       </c>
@@ -9409,7 +9453,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>614</v>
       </c>
@@ -9420,7 +9464,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>615</v>
       </c>
@@ -9431,7 +9475,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>616</v>
       </c>
@@ -9442,7 +9486,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>617</v>
       </c>
@@ -9453,7 +9497,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>618</v>
       </c>
@@ -9464,7 +9508,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>619</v>
       </c>
@@ -9475,7 +9519,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>620</v>
       </c>
@@ -9486,7 +9530,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>621</v>
       </c>
@@ -9497,7 +9541,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>622</v>
       </c>
@@ -9508,7 +9552,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>623</v>
       </c>
@@ -9525,67 +9569,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="210.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="210.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>624</v>
       </c>
@@ -9740,7 +9782,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -9895,7 +9937,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -10044,7 +10086,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>702</v>
       </c>
@@ -10199,12 +10241,12 @@
         <v>752</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>753</v>
       </c>
@@ -10215,7 +10257,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>756</v>
       </c>
@@ -10226,7 +10268,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>759</v>
       </c>
@@ -10243,25 +10285,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1595.7109375" customWidth="1"/>
-    <col min="4" max="4" width="277.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1595.6640625" customWidth="1"/>
+    <col min="4" max="4" width="277.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>761</v>
       </c>
@@ -10290,7 +10331,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>770</v>
       </c>
@@ -10319,7 +10360,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>779</v>
       </c>
@@ -10348,7 +10389,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>788</v>
       </c>
@@ -10377,12 +10418,12 @@
         <v>796</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>797</v>
       </c>
@@ -10408,28 +10449,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>803</v>
       </c>
@@ -10467,7 +10508,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>815</v>
       </c>
@@ -10505,7 +10546,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>825</v>
       </c>
@@ -10543,7 +10584,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>836</v>
       </c>
@@ -10581,12 +10622,12 @@
         <v>847</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>848</v>
       </c>
@@ -10609,21 +10650,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>853</v>
       </c>
@@ -10640,7 +10681,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>857</v>
       </c>
@@ -10657,7 +10698,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>862</v>
       </c>
@@ -10674,7 +10715,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>867</v>
       </c>
@@ -10691,12 +10732,12 @@
         <v>871</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>872</v>
       </c>
@@ -10707,46 +10748,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>873</v>
       </c>
@@ -10838,7 +10877,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>885</v>
       </c>
@@ -10930,7 +10969,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>894</v>
       </c>
@@ -11010,7 +11049,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>904</v>
       </c>
@@ -11102,12 +11141,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>916</v>
       </c>
@@ -11130,7 +11169,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>921</v>
       </c>
@@ -11153,7 +11192,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>923</v>
       </c>
@@ -11176,7 +11215,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>926</v>
       </c>
@@ -11199,7 +11238,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>927</v>
       </c>
@@ -11222,7 +11261,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>929</v>
       </c>
@@ -11245,7 +11284,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>930</v>
       </c>
@@ -11268,7 +11307,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>932</v>
       </c>
@@ -11291,7 +11330,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>933</v>
       </c>
@@ -11314,7 +11353,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>935</v>
       </c>
@@ -11337,7 +11376,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>936</v>
       </c>
@@ -11360,7 +11399,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>938</v>
       </c>
@@ -11383,7 +11422,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>939</v>
       </c>
@@ -11406,7 +11445,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>941</v>
       </c>
@@ -11429,7 +11468,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>942</v>
       </c>
@@ -11452,7 +11491,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>944</v>
       </c>
@@ -11475,7 +11514,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>945</v>
       </c>
@@ -11498,7 +11537,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>947</v>
       </c>
@@ -11521,7 +11560,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>948</v>
       </c>
@@ -11544,7 +11583,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>950</v>
       </c>
@@ -11567,7 +11606,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>951</v>
       </c>
@@ -11590,7 +11629,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>953</v>
       </c>
@@ -11613,7 +11652,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>954</v>
       </c>
@@ -11636,7 +11675,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>956</v>
       </c>
@@ -11659,7 +11698,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>957</v>
       </c>
@@ -11682,7 +11721,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>959</v>
       </c>
@@ -11705,7 +11744,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>960</v>
       </c>
@@ -11728,7 +11767,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>962</v>
       </c>
@@ -11751,7 +11790,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>963</v>
       </c>
@@ -11774,7 +11813,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>965</v>
       </c>
@@ -11797,7 +11836,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>966</v>
       </c>
@@ -11820,7 +11859,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>968</v>
       </c>
@@ -11843,7 +11882,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>969</v>
       </c>
@@ -11866,7 +11905,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>971</v>
       </c>
@@ -11889,7 +11928,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>972</v>
       </c>
@@ -11912,7 +11951,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>974</v>
       </c>
@@ -11935,7 +11974,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>975</v>
       </c>
@@ -11958,7 +11997,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>977</v>
       </c>
@@ -11981,7 +12020,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>978</v>
       </c>
@@ -12004,7 +12043,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>980</v>
       </c>
@@ -12027,7 +12066,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>981</v>
       </c>
@@ -12050,7 +12089,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>983</v>
       </c>
@@ -12073,7 +12112,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>984</v>
       </c>
@@ -12096,7 +12135,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>986</v>
       </c>
@@ -12119,7 +12158,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>987</v>
       </c>
@@ -12142,7 +12181,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>989</v>
       </c>
@@ -12165,7 +12204,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>990</v>
       </c>
@@ -12188,7 +12227,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>992</v>
       </c>
@@ -12211,7 +12250,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>993</v>
       </c>
@@ -12234,7 +12273,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>995</v>
       </c>
@@ -12257,7 +12296,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>996</v>
       </c>
@@ -12280,7 +12319,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>998</v>
       </c>
@@ -12303,7 +12342,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>999</v>
       </c>
@@ -12326,7 +12365,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1001</v>
       </c>
@@ -12349,7 +12388,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1002</v>
       </c>
@@ -12372,7 +12411,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1004</v>
       </c>
@@ -12395,7 +12434,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1005</v>
       </c>
@@ -12418,7 +12457,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1007</v>
       </c>
@@ -12441,7 +12480,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1008</v>
       </c>
@@ -12464,7 +12503,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1010</v>
       </c>
@@ -12487,7 +12526,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1011</v>
       </c>
@@ -12510,7 +12549,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1013</v>
       </c>
@@ -12533,7 +12572,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1014</v>
       </c>
@@ -12556,7 +12595,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1016</v>
       </c>
@@ -12579,7 +12618,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1017</v>
       </c>
@@ -12602,7 +12641,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1019</v>
       </c>
@@ -12625,7 +12664,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1020</v>
       </c>
@@ -12648,7 +12687,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1022</v>
       </c>
@@ -12671,7 +12710,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1023</v>
       </c>
@@ -12694,7 +12733,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1025</v>
       </c>
@@ -12717,7 +12756,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1026</v>
       </c>
@@ -12740,7 +12779,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1028</v>
       </c>
@@ -12763,7 +12802,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1029</v>
       </c>
@@ -12786,7 +12825,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1031</v>
       </c>
@@ -12809,7 +12848,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1032</v>
       </c>
@@ -12832,7 +12871,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1034</v>
       </c>
@@ -12855,7 +12894,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1035</v>
       </c>
@@ -12878,7 +12917,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1037</v>
       </c>
@@ -12901,7 +12940,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1038</v>
       </c>
@@ -12924,7 +12963,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1040</v>
       </c>
@@ -12947,7 +12986,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1041</v>
       </c>
@@ -12970,7 +13009,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1043</v>
       </c>
@@ -12993,7 +13032,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1044</v>
       </c>
@@ -13016,7 +13055,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1046</v>
       </c>
@@ -13039,7 +13078,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1047</v>
       </c>
@@ -13062,7 +13101,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1049</v>
       </c>
@@ -13085,7 +13124,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1050</v>
       </c>
@@ -13108,7 +13147,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1052</v>
       </c>
@@ -13131,7 +13170,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1053</v>
       </c>
@@ -13154,7 +13193,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1055</v>
       </c>
@@ -13177,7 +13216,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1056</v>
       </c>
@@ -13200,7 +13239,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1058</v>
       </c>
@@ -13223,7 +13262,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1059</v>
       </c>
@@ -13246,7 +13285,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1061</v>
       </c>
@@ -13275,34 +13314,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="130.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="130.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>884</v>
       </c>
@@ -13358,7 +13399,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -13414,7 +13455,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -13464,7 +13505,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>915</v>
       </c>
@@ -13520,12 +13561,12 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>920</v>
       </c>
@@ -13535,8 +13576,11 @@
       <c r="G6" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="K6" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>925</v>
       </c>
@@ -13545,6 +13589,9 @@
       </c>
       <c r="G7" t="s">
         <v>1109</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1219</v>
       </c>
     </row>
   </sheetData>
